--- a/仕様/画面構成イメージ.xlsx
+++ b/仕様/画面構成イメージ.xlsx
@@ -7,7 +7,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="画面イメージ" sheetId="1" r:id="rId1"/>
+    <sheet name="簡易マップ" sheetId="2" r:id="rId2"/>
+    <sheet name="装備状況UI" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,11 +21,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>■画面イメージ</t>
     <rPh sb="1" eb="3">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■装備のクールタイムについて</t>
+    <rPh sb="1" eb="3">
+      <t>ソウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■簡易マップ</t>
+    <rPh sb="1" eb="3">
+      <t>カンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■装備状況UI</t>
+    <rPh sb="1" eb="5">
+      <t>ソウビジョウキョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -85,6 +108,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD47878"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -103,13 +131,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>103908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>24493</xdr:rowOff>
+      <xdr:rowOff>128401</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -132,8 +160,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="244929"/>
-          <a:ext cx="10058400" cy="5657850"/>
+          <a:off x="0" y="346363"/>
+          <a:ext cx="10231582" cy="5600947"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -147,13 +175,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>17318</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>103908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>277091</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
+      <xdr:rowOff>138544</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -162,7 +190,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4173682" y="2667000"/>
+          <a:off x="4173682" y="2770908"/>
           <a:ext cx="1645227" cy="3186545"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -207,13 +235,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>147205</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
+      <xdr:rowOff>138544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>415637</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
+      <xdr:rowOff>138544</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -224,7 +252,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4996296" y="5853545"/>
+          <a:off x="4996296" y="5957453"/>
           <a:ext cx="961159" cy="242455"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -251,6 +279,1391 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>432954</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>155862</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1467068" cy="521425"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5974772" y="5974771"/>
+          <a:ext cx="1467068" cy="521425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>プレイヤー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>675407</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190497</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7858370" cy="2666884"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10373589" y="432952"/>
+          <a:ext cx="7858370" cy="2666884"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0"/>
+            <a:t>■画面構成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0"/>
+            <a:t>※3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0"/>
+            <a:t>人称視点で画面中央にプレイヤーが映る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0"/>
+            <a:t>・画面左上に簡易マップ（簡易マップシートに詳細）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0"/>
+            <a:t>・プレイヤーの手前に半透明になっている部分が体力ゲージ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0"/>
+            <a:t>・画面左下に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0"/>
+            <a:t>・画面右下にパーツの装備状況の表示を予定（装備状況</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0"/>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0"/>
+            <a:t>に詳細）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>51956</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>24693</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="楕円 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="51956" y="363682"/>
+          <a:ext cx="1333500" cy="1358193"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>259774</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>623457</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="楕円 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3030683" y="5230091"/>
+          <a:ext cx="3827319" cy="415636"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>432954</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001000" y="4139045"/>
+          <a:ext cx="2130136" cy="1714501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>103908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>236286</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="25728" t="40877" r="27217"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7549973"/>
+          <a:ext cx="6423395" cy="4410114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>217394</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>620805</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="線吹き出し 2 (枠付き) 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4332194" y="8873137"/>
+          <a:ext cx="1089211" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18749"/>
+            <a:gd name="adj4" fmla="val -32658"/>
+            <a:gd name="adj5" fmla="val 505363"/>
+            <a:gd name="adj6" fmla="val -51510"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>108686</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>226926</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="819904" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4207720" y="8503823"/>
+          <a:ext cx="819904" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:MISSILE</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>429041</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>3072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>639248</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>69057</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5225339" y="8870540"/>
+          <a:ext cx="210207" cy="65985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>473298</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>213519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>189253</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="線吹き出し 2 (枠付き) 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1160459" y="10691019"/>
+          <a:ext cx="1090276" cy="43649"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18751"/>
+            <a:gd name="adj2" fmla="val 105645"/>
+            <a:gd name="adj3" fmla="val 11486"/>
+            <a:gd name="adj4" fmla="val 118817"/>
+            <a:gd name="adj5" fmla="val -881880"/>
+            <a:gd name="adj6" fmla="val 154418"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>364590</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>188084</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1311641" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1052249" y="10377511"/>
+          <a:ext cx="1311641" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:MACHINEGUN</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>83949</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>200704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>207696</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>30214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1458270" y="10678204"/>
+          <a:ext cx="810908" cy="67635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>380997</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>17317</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6853158" cy="2237792"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7308270" y="7533408"/>
+          <a:ext cx="6853158" cy="2237792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0"/>
+            <a:t>■装備のクールタイム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0"/>
+            <a:t>※UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0"/>
+            <a:t>は透過処理をし、邪魔にならないようにする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0"/>
+            <a:t>　白</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0"/>
+            <a:t>or</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0"/>
+            <a:t>赤色にする（見やすいほう）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0"/>
+            <a:t>・武装ごとにクールタイムを表示する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0"/>
+            <a:t>・クールタイムが終了し、リロードしきったら表示を消す</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12326</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4586961" cy="1594667"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4113679" y="493059"/>
+          <a:ext cx="4586961" cy="1594667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0"/>
+            <a:t>■簡易マップ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0"/>
+            <a:t>透過処理をする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0"/>
+            <a:t>方向又は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0"/>
+            <a:t>方向のレーダー上のマップ（図は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0"/>
+            <a:t>方向）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0"/>
+            <a:t>・敵が方向が赤くなる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0"/>
+            <a:t>　敵が近いほど鮮やかな赤色になる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381004</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>33616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>168093</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381004" y="504263"/>
+          <a:ext cx="3204883" cy="3204883"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>448242</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>94841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>96056</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="アーチ 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="448242" y="565488"/>
+          <a:ext cx="3065608" cy="2997983"/>
+        </a:xfrm>
+        <a:prstGeom prst="blockArc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 13411009"/>
+            <a:gd name="adj2" fmla="val 19099611"/>
+            <a:gd name="adj3" fmla="val 41005"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D47878"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>528190</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>108379</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="アーチ 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="494378" y="605827"/>
+          <a:ext cx="3065608" cy="2997983"/>
+        </a:xfrm>
+        <a:prstGeom prst="blockArc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 13725372"/>
+            <a:gd name="adj2" fmla="val 18806943"/>
+            <a:gd name="adj3" fmla="val 41806"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>456279</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104093</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114298</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="アーチ 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="456279" y="646168"/>
+          <a:ext cx="3065608" cy="2997983"/>
+        </a:xfrm>
+        <a:prstGeom prst="blockArc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 13483805"/>
+            <a:gd name="adj2" fmla="val 19099611"/>
+            <a:gd name="adj3" fmla="val 41005"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>445264</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>108090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25453</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114492</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="アーチ 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="411452" y="612549"/>
+          <a:ext cx="3065608" cy="2997983"/>
+        </a:xfrm>
+        <a:prstGeom prst="blockArc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 13725372"/>
+            <a:gd name="adj2" fmla="val 18806943"/>
+            <a:gd name="adj3" fmla="val 41806"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>493056</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>212911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67233</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="二等辺三角形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1860174" y="1860176"/>
+          <a:ext cx="257735" cy="437029"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -519,10 +1932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -530,6 +1943,38 @@
     <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A29:XFD29"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -540,4 +1985,28 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/仕様/画面構成イメージ.xlsx
+++ b/仕様/画面構成イメージ.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="画面イメージ" sheetId="1" r:id="rId1"/>
     <sheet name="簡易マップ" sheetId="2" r:id="rId2"/>
     <sheet name="装備状況UI" sheetId="3" r:id="rId3"/>
+    <sheet name="タイトル画面" sheetId="4" r:id="rId4"/>
+    <sheet name="ゲームエンド（リザルト）" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>■画面イメージ</t>
     <rPh sb="1" eb="3">
@@ -48,6 +50,24 @@
     <rPh sb="1" eb="5">
       <t>ソウビジョウキョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■タイトル画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■メニュー画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ゲームエンド（リザルト）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1661,6 +1681,792 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161924" y="361950"/>
+          <a:ext cx="5286375" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>189641</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2339103" cy="693075"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1561241" y="1171575"/>
+          <a:ext cx="2339103" cy="693075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>タイトルロゴ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>588404</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1541576" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1960004" y="2247900"/>
+          <a:ext cx="1541576" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PleaseStartButton</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2609850" y="2019300"/>
+          <a:ext cx="285750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161924" y="4152900"/>
+          <a:ext cx="5286375" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2698175" cy="693267"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5814331" y="378279"/>
+          <a:ext cx="2698175" cy="693267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0"/>
+            <a:t>■タイトル画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0"/>
+            <a:t>ボタン入力でゲームスタート</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1980029" cy="693267"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5814331" y="4283529"/>
+          <a:ext cx="1980029" cy="693267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0"/>
+            <a:t>■メニュー画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0"/>
+            <a:t>決定キーで各項目へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3592286"/>
+          <a:ext cx="12600215" cy="3837214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129267</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="342900"/>
+          <a:ext cx="5248275" cy="2881992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2174313" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="838200"/>
+          <a:ext cx="2174313" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>キル数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>	37</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2174313" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="1190625"/>
+          <a:ext cx="2174313" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>パージキル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="1685926"/>
+          <a:ext cx="3609975" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>出来ればグラフ</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1934,7 +2740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
@@ -2009,4 +2815,61 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A16:XFD16"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>